--- a/data/reconstruction.xlsx
+++ b/data/reconstruction.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\GDOforecast\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE25159-1D6B-4CD3-8E85-507FFFF93C13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCCD988C-24F2-4FBE-B634-4B65D1D48543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33330" yWindow="1665" windowWidth="23715" windowHeight="13155" xr2:uid="{27790E91-9AD0-417D-A3E5-5148C25410B2}"/>
+    <workbookView xWindow="33330" yWindow="1665" windowWidth="23715" windowHeight="13155" activeTab="1" xr2:uid="{27790E91-9AD0-417D-A3E5-5148C25410B2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="boosting" sheetId="1" r:id="rId1"/>
+    <sheet name="boostforecast" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="18">
   <si>
     <t>ts</t>
   </si>
@@ -68,6 +69,27 @@
   <si>
     <t>boost_set</t>
   </si>
+  <si>
+    <t>bset</t>
+  </si>
+  <si>
+    <t>ds</t>
+  </si>
+  <si>
+    <t>AR pred</t>
+  </si>
+  <si>
+    <t>ypred</t>
+  </si>
+  <si>
+    <t>yfore</t>
+  </si>
+  <si>
+    <t>dslog</t>
+  </si>
+  <si>
+    <t>fvalue</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -106,11 +128,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -119,6 +178,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -433,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB9DFA2A-696F-491F-A83C-2B4FBB1A9DC4}">
-  <dimension ref="A1:Q43"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -451,7 +513,7 @@
     <col min="20" max="20" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -486,7 +548,7 @@
       <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
@@ -499,7 +561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -524,22 +586,23 @@
         <v>5</v>
       </c>
       <c r="J2">
-        <v>-9.5704999999999998E-2</v>
+        <v>-5.2542999999999999E-2</v>
       </c>
       <c r="K2">
-        <v>-2.5992000000000001E-2</v>
+        <v>-4.6150000000000002E-3</v>
       </c>
       <c r="L2">
-        <v>-2.5992000000000001E-2</v>
+        <v>-4.6150000000000002E-3</v>
       </c>
       <c r="M2">
         <f>J2+L2</f>
-        <v>-0.121697</v>
-      </c>
-      <c r="N2">
-        <v>-0.121697</v>
-      </c>
-      <c r="O2">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="N2" s="3">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="O2" s="4">
+        <f>E2</f>
         <v>2.772589</v>
       </c>
       <c r="P2">
@@ -550,8 +613,11 @@
         <f>EXP(P2)</f>
         <v>16.000004444164116</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>1+A2</f>
         <v>1</v>
@@ -564,7 +630,7 @@
         <v>2.7080502011022101</v>
       </c>
       <c r="D3">
-        <f>C3-D2</f>
+        <f>C3-C2</f>
         <v>-6.4538521137571081E-2</v>
       </c>
       <c r="E3" s="3">
@@ -577,36 +643,40 @@
         <v>5</v>
       </c>
       <c r="J3">
-        <v>2.9742999999999999</v>
+        <v>9.1590000000000005E-3</v>
       </c>
       <c r="K3">
-        <v>3.7768000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="L3">
-        <v>3.7768000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ref="M3:M36" si="1">J3+L3</f>
-        <v>3.0120679999999997</v>
-      </c>
-      <c r="N3">
-        <v>3.0120689999999999</v>
-      </c>
-      <c r="O3">
+        <v>5.7159000000000001E-2</v>
+      </c>
+      <c r="N3" s="3">
+        <v>5.7158E-2</v>
+      </c>
+      <c r="O3" s="5">
+        <f t="shared" ref="O3:O8" si="2">E3</f>
         <v>-6.4538999999999999E-2</v>
       </c>
       <c r="P3">
-        <f>O2+O3</f>
+        <f>P2+O3</f>
         <v>2.7080500000000001</v>
       </c>
       <c r="Q3">
-        <f t="shared" ref="Q3:Q43" si="2">EXP(P3)</f>
+        <f t="shared" ref="Q3:Q43" si="3">EXP(P3)</f>
         <v>14.999996983467152</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="S3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
-        <f t="shared" ref="A4:A43" si="3">1+A3</f>
+        <f t="shared" ref="A4:A43" si="4">1+A3</f>
         <v>2</v>
       </c>
       <c r="B4">
@@ -617,11 +687,11 @@
         <v>2.7725887222397811</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D43" si="4">C4-D3</f>
-        <v>2.8371272433773522</v>
+        <f t="shared" ref="D4:D43" si="5">C4-C3</f>
+        <v>6.4538521137571081E-2</v>
       </c>
       <c r="E4" s="3">
-        <v>2.8371270000000002</v>
+        <v>6.4538999999999999E-2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -630,36 +700,40 @@
         <v>5</v>
       </c>
       <c r="J4">
-        <v>-0.11035300000000001</v>
+        <v>-2.6349000000000001E-2</v>
       </c>
       <c r="K4">
-        <v>-1.1344E-2</v>
+        <v>2.6349000000000001E-2</v>
       </c>
       <c r="L4">
-        <v>-1.1344E-2</v>
+        <v>2.6349000000000001E-2</v>
       </c>
       <c r="M4">
         <f t="shared" si="1"/>
-        <v>-0.121697</v>
-      </c>
-      <c r="N4">
-        <v>-0.121697</v>
-      </c>
-      <c r="O4">
-        <v>2.8371270000000002</v>
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <f t="shared" si="2"/>
+        <v>6.4538999999999999E-2</v>
       </c>
       <c r="P4">
-        <f t="shared" ref="P4:P43" si="5">O3+O4</f>
-        <v>2.7725880000000003</v>
+        <f t="shared" ref="P4:P43" si="6">P3+O4</f>
+        <v>2.772589</v>
       </c>
       <c r="Q4">
-        <f t="shared" si="2"/>
-        <v>15.999988444167677</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>16.000004444164116</v>
+      </c>
+      <c r="S4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="B5">
@@ -670,11 +744,11 @@
         <v>2.7725887222397811</v>
       </c>
       <c r="D5">
-        <f t="shared" si="4"/>
-        <v>-6.4538521137571081E-2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E5" s="3">
-        <v>-6.4538999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
         <v>5</v>
@@ -683,36 +757,40 @@
         <v>5</v>
       </c>
       <c r="J5">
-        <v>3.0043340000000001</v>
+        <v>-1.3683000000000001E-2</v>
       </c>
       <c r="K5">
-        <v>-4.9424000000000003E-2</v>
+        <v>-4.3475E-2</v>
       </c>
       <c r="L5">
-        <v>-4.9424000000000003E-2</v>
+        <v>-4.3475E-2</v>
       </c>
       <c r="M5">
         <f t="shared" si="1"/>
-        <v>2.9549099999999999</v>
-      </c>
-      <c r="N5">
-        <v>2.9549099999999999</v>
-      </c>
-      <c r="O5">
-        <v>-6.4538999999999999E-2</v>
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="N5" s="3">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="O5" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P5">
-        <f t="shared" si="5"/>
-        <v>2.7725880000000003</v>
+        <f t="shared" si="6"/>
+        <v>2.772589</v>
       </c>
       <c r="Q5">
-        <f t="shared" si="2"/>
-        <v>15.999988444167677</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>16.000004444164116</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="B6">
@@ -723,11 +801,11 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D6">
-        <f t="shared" si="4"/>
-        <v>2.8977518651937872</v>
+        <f t="shared" si="5"/>
+        <v>6.062462181643502E-2</v>
       </c>
       <c r="E6" s="3">
-        <v>2.8977520000000001</v>
+        <v>6.0624999999999998E-2</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -736,36 +814,40 @@
         <v>5</v>
       </c>
       <c r="J6">
-        <v>-2.0338999999999999E-2</v>
+        <v>6.6965999999999998E-2</v>
       </c>
       <c r="K6">
-        <v>0.10995099999999999</v>
+        <v>0.144343</v>
       </c>
       <c r="L6">
-        <v>0.10995099999999999</v>
+        <v>0.144343</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>8.9611999999999997E-2</v>
-      </c>
-      <c r="N6">
-        <v>8.9611999999999997E-2</v>
-      </c>
-      <c r="O6">
-        <v>2.8977520000000001</v>
+        <v>0.211309</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0.211309</v>
+      </c>
+      <c r="O6" s="5">
+        <f t="shared" si="2"/>
+        <v>6.0624999999999998E-2</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
-        <v>2.8332130000000002</v>
+        <f t="shared" si="6"/>
+        <v>2.8332139999999999</v>
       </c>
       <c r="Q6">
-        <f t="shared" si="2"/>
-        <v>16.999994151045335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000011151047982</v>
+      </c>
+      <c r="S6">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="B7">
@@ -776,11 +858,11 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D7">
-        <f t="shared" si="4"/>
-        <v>-6.4538521137571081E-2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E7" s="3">
-        <v>-6.4538999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
         <v>5</v>
@@ -789,36 +871,40 @@
         <v>5</v>
       </c>
       <c r="J7">
-        <v>2.8151799999999998</v>
+        <v>-0.144792</v>
       </c>
       <c r="K7">
-        <v>3.9647000000000002E-2</v>
+        <v>4.4708999999999999E-2</v>
       </c>
       <c r="L7">
-        <v>3.9647000000000002E-2</v>
+        <v>4.4708999999999999E-2</v>
       </c>
       <c r="M7">
         <f t="shared" si="1"/>
-        <v>2.8548269999999998</v>
-      </c>
-      <c r="N7">
-        <v>2.8548269999999998</v>
-      </c>
-      <c r="O7">
-        <v>-6.4538999999999999E-2</v>
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="N7" s="3">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="O7" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
       </c>
       <c r="P7">
-        <f t="shared" si="5"/>
-        <v>2.8332130000000002</v>
+        <f t="shared" si="6"/>
+        <v>2.8332139999999999</v>
       </c>
       <c r="Q7">
-        <f t="shared" si="2"/>
-        <v>16.999994151045335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000011151047982</v>
+      </c>
+      <c r="S7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="B8">
@@ -829,11 +915,11 @@
         <v>2.8903717578961645</v>
       </c>
       <c r="D8">
-        <f t="shared" si="4"/>
-        <v>2.9549102790337356</v>
+        <f>C8-C7</f>
+        <v>5.7158413839948352E-2</v>
       </c>
       <c r="E8" s="3">
-        <v>2.9549099999999999</v>
+        <v>5.7158E-2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -842,36 +928,40 @@
         <v>5</v>
       </c>
       <c r="J8">
-        <v>8.4405999999999995E-2</v>
+        <v>-2.1069000000000001E-2</v>
       </c>
       <c r="K8">
-        <v>-0.10602</v>
+        <v>-9.0157000000000001E-2</v>
       </c>
       <c r="L8">
-        <v>-0.10602</v>
+        <v>-9.0157000000000001E-2</v>
       </c>
       <c r="M8">
         <f t="shared" si="1"/>
-        <v>-2.1614000000000008E-2</v>
-      </c>
-      <c r="N8">
-        <v>-2.1613E-2</v>
-      </c>
-      <c r="O8">
-        <v>2.9549099999999999</v>
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="N8" s="3">
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="O8" s="6">
+        <f t="shared" si="2"/>
+        <v>5.7158E-2</v>
       </c>
       <c r="P8">
-        <f t="shared" si="5"/>
-        <v>2.890371</v>
+        <f t="shared" si="6"/>
+        <v>2.8903719999999997</v>
       </c>
       <c r="Q8">
-        <f t="shared" si="2"/>
-        <v>17.999986357874207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18.000004357869557</v>
+      </c>
+      <c r="S8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="B9">
@@ -882,53 +972,56 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D9">
-        <f>C9-D8</f>
-        <v>-0.12169693497751943</v>
+        <f>C9-C8</f>
+        <v>-5.7158413839948352E-2</v>
       </c>
       <c r="E9" s="3">
-        <v>-0.121697</v>
+        <v>-5.7158E-2</v>
       </c>
       <c r="F9">
-        <v>-9.5704999999999998E-2</v>
+        <v>-5.2542999999999999E-2</v>
       </c>
       <c r="G9">
-        <v>-2.5992000000000001E-2</v>
+        <v>-4.6150000000000002E-3</v>
       </c>
       <c r="H9">
-        <v>-9.5704999999999998E-2</v>
+        <v>-5.2542999999999999E-2</v>
       </c>
       <c r="J9">
-        <v>2.9802849999999999</v>
+        <v>0.12720699999999999</v>
       </c>
       <c r="K9">
-        <v>-1.4232E-2</v>
+        <v>-1.5980999999999999E-2</v>
       </c>
       <c r="L9">
-        <v>-1.4232E-2</v>
+        <v>-1.5980999999999999E-2</v>
       </c>
       <c r="M9">
         <f t="shared" si="1"/>
-        <v>2.9660530000000001</v>
-      </c>
-      <c r="N9">
-        <v>2.9660519999999999</v>
+        <v>0.11122599999999999</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0.11122600000000001</v>
       </c>
       <c r="O9">
         <f>M2</f>
-        <v>-0.121697</v>
+        <v>-5.7158E-2</v>
       </c>
       <c r="P9">
-        <f t="shared" si="5"/>
-        <v>2.8332129999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.8332139999999999</v>
       </c>
       <c r="Q9">
-        <f t="shared" si="2"/>
-        <v>16.999994151045328</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000011151047982</v>
+      </c>
+      <c r="S9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="B10">
@@ -939,53 +1032,56 @@
         <v>2.8903717578961645</v>
       </c>
       <c r="D10">
-        <f t="shared" si="4"/>
-        <v>3.012068692873684</v>
+        <f>C10-C9</f>
+        <v>5.7158413839948352E-2</v>
       </c>
       <c r="E10" s="3">
-        <v>3.0120689999999999</v>
+        <v>5.7158E-2</v>
       </c>
       <c r="F10">
-        <v>2.9742999999999999</v>
+        <v>9.1590000000000005E-3</v>
       </c>
       <c r="G10">
-        <v>3.7768000000000003E-2</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="H10">
-        <v>2.9742999999999999</v>
+        <v>9.1590000000000005E-3</v>
       </c>
       <c r="J10">
-        <v>-2.5423999999999999E-2</v>
+        <v>-2.7217999999999999E-2</v>
       </c>
       <c r="K10">
-        <v>-0.107415</v>
+        <v>-8.4006999999999998E-2</v>
       </c>
       <c r="L10">
-        <v>-0.107415</v>
+        <v>-8.4006999999999998E-2</v>
       </c>
       <c r="M10">
         <f t="shared" si="1"/>
-        <v>-0.13283899999999998</v>
-      </c>
-      <c r="N10">
-        <v>-0.13283900000000001</v>
+        <v>-0.11122499999999999</v>
+      </c>
+      <c r="N10" s="3">
+        <v>-0.11122600000000001</v>
       </c>
       <c r="O10">
-        <f t="shared" ref="O10:O43" si="6">M3</f>
-        <v>3.0120679999999997</v>
+        <f t="shared" ref="O10:O43" si="7">M3</f>
+        <v>5.7159000000000001E-2</v>
       </c>
       <c r="P10">
-        <f t="shared" si="5"/>
-        <v>2.8903709999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.8903729999999999</v>
       </c>
       <c r="Q10">
-        <f t="shared" si="2"/>
-        <v>17.999986357874196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18.000022357882919</v>
+      </c>
+      <c r="S10">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="B11">
@@ -996,53 +1092,56 @@
         <v>2.8903717578961645</v>
       </c>
       <c r="D11">
-        <f t="shared" si="4"/>
-        <v>-0.12169693497751943</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E11" s="3">
-        <v>-0.121697</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>-0.11035300000000001</v>
+        <v>-2.6349000000000001E-2</v>
       </c>
       <c r="G11">
-        <v>-1.1344E-2</v>
+        <v>2.6349000000000001E-2</v>
       </c>
       <c r="H11">
-        <v>-0.11035300000000001</v>
+        <v>-2.6349000000000001E-2</v>
       </c>
       <c r="J11">
-        <v>3.0746739999999999</v>
+        <v>0.105598</v>
       </c>
       <c r="K11">
-        <v>2.604E-3</v>
+        <v>5.6280000000000002E-3</v>
       </c>
       <c r="L11">
-        <v>2.604E-3</v>
+        <v>5.6280000000000002E-3</v>
       </c>
       <c r="M11">
         <f t="shared" si="1"/>
-        <v>3.0772779999999997</v>
-      </c>
-      <c r="N11">
-        <v>3.0772780000000002</v>
+        <v>0.11122599999999999</v>
+      </c>
+      <c r="N11" s="3">
+        <v>0.11122600000000001</v>
       </c>
       <c r="O11">
-        <f t="shared" si="6"/>
-        <v>-0.121697</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P11">
-        <f t="shared" si="5"/>
-        <v>2.8903709999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.8903729999999999</v>
       </c>
       <c r="Q11">
-        <f t="shared" si="2"/>
-        <v>17.999986357874196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>18.000022357882919</v>
+      </c>
+      <c r="S11">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="B12">
@@ -1053,53 +1152,56 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D12">
-        <f t="shared" si="4"/>
-        <v>2.9549102790337356</v>
+        <f t="shared" si="5"/>
+        <v>-5.7158413839948352E-2</v>
       </c>
       <c r="E12" s="3">
-        <v>2.9549099999999999</v>
+        <v>-5.7158E-2</v>
       </c>
       <c r="F12">
-        <v>3.0043340000000001</v>
+        <v>-1.3683000000000001E-2</v>
       </c>
       <c r="G12">
-        <v>-4.9424000000000003E-2</v>
+        <v>-4.3475E-2</v>
       </c>
       <c r="H12">
-        <v>3.0043340000000001</v>
+        <v>-1.3683000000000001E-2</v>
       </c>
       <c r="J12">
-        <v>-7.4167999999999998E-2</v>
+        <v>2.2317E-2</v>
       </c>
       <c r="K12">
-        <v>-5.8671000000000001E-2</v>
+        <v>-2.2317E-2</v>
       </c>
       <c r="L12">
-        <v>-5.8671000000000001E-2</v>
+        <v>-2.2317E-2</v>
       </c>
       <c r="M12">
         <f t="shared" si="1"/>
-        <v>-0.13283899999999998</v>
-      </c>
-      <c r="N12">
-        <v>-0.13283900000000001</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
       </c>
       <c r="O12">
-        <f t="shared" si="6"/>
-        <v>2.9549099999999999</v>
+        <f t="shared" si="7"/>
+        <v>-5.7158E-2</v>
       </c>
       <c r="P12">
-        <f t="shared" si="5"/>
-        <v>2.8332129999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.833215</v>
       </c>
       <c r="Q12">
-        <f t="shared" si="2"/>
-        <v>16.999994151045328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000028151067635</v>
+      </c>
+      <c r="S12">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="B13">
@@ -1110,53 +1212,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D13">
-        <f t="shared" si="4"/>
-        <v>8.9612158689687416E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.21130909366720685</v>
       </c>
       <c r="E13" s="3">
-        <v>8.9611999999999997E-2</v>
+        <v>0.211309</v>
       </c>
       <c r="F13">
-        <v>-2.0338999999999999E-2</v>
+        <v>6.6965999999999998E-2</v>
       </c>
       <c r="G13">
-        <v>0.10995099999999999</v>
+        <v>0.144343</v>
       </c>
       <c r="H13">
-        <v>-2.0338999999999999E-2</v>
+        <v>6.6965999999999998E-2</v>
       </c>
       <c r="J13">
-        <v>3.046637</v>
+        <v>-2.3990999999999998E-2</v>
       </c>
       <c r="K13">
-        <v>8.1934000000000007E-2</v>
+        <v>7.5284000000000004E-2</v>
       </c>
       <c r="L13">
-        <v>8.1934000000000007E-2</v>
+        <v>7.5284000000000004E-2</v>
       </c>
       <c r="M13">
         <f t="shared" si="1"/>
-        <v>3.128571</v>
-      </c>
-      <c r="N13">
-        <v>3.128571</v>
+        <v>5.1293000000000005E-2</v>
+      </c>
+      <c r="N13" s="3">
+        <v>5.1292999999999998E-2</v>
       </c>
       <c r="O13">
-        <f t="shared" si="6"/>
-        <v>8.9611999999999997E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.211309</v>
       </c>
       <c r="P13">
-        <f t="shared" si="5"/>
-        <v>3.0445219999999997</v>
+        <f t="shared" si="6"/>
+        <v>3.044524</v>
       </c>
       <c r="Q13">
-        <f t="shared" si="2"/>
-        <v>20.999990807810125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000032807833744</v>
+      </c>
+      <c r="S13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="B14">
@@ -1167,53 +1272,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D14">
-        <f t="shared" si="4"/>
-        <v>2.8548268204767528</v>
+        <f t="shared" si="5"/>
+        <v>-0.10008345855698275</v>
       </c>
       <c r="E14" s="3">
-        <v>2.8548269999999998</v>
+        <v>-0.10008300000000001</v>
       </c>
       <c r="F14">
-        <v>2.8151799999999998</v>
+        <v>-0.144792</v>
       </c>
       <c r="G14">
-        <v>3.9647000000000002E-2</v>
+        <v>4.4708999999999999E-2</v>
       </c>
       <c r="H14">
-        <v>2.8151799999999998</v>
+        <v>-0.144792</v>
       </c>
       <c r="J14">
-        <v>-0.16033900000000001</v>
+        <v>-5.2349E-2</v>
       </c>
       <c r="K14">
-        <v>-2.3793999999999999E-2</v>
+        <v>1.0549999999999999E-3</v>
       </c>
       <c r="L14">
-        <v>-2.3793999999999999E-2</v>
+        <v>1.0549999999999999E-3</v>
       </c>
       <c r="M14">
         <f t="shared" si="1"/>
-        <v>-0.18413300000000002</v>
-      </c>
-      <c r="N14">
-        <v>-0.18413199999999999</v>
+        <v>-5.1293999999999999E-2</v>
+      </c>
+      <c r="N14" s="3">
+        <v>-5.1292999999999998E-2</v>
       </c>
       <c r="O14">
-        <f t="shared" si="6"/>
-        <v>2.8548269999999998</v>
+        <f t="shared" si="7"/>
+        <v>-0.10008300000000001</v>
       </c>
       <c r="P14">
-        <f t="shared" si="5"/>
-        <v>2.9444389999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.9444409999999999</v>
       </c>
       <c r="Q14">
-        <f t="shared" si="2"/>
-        <v>19.000000395837628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000038395876423</v>
+      </c>
+      <c r="S14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="B15">
@@ -1224,53 +1332,56 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D15">
-        <f t="shared" si="4"/>
-        <v>-2.1613476420536681E-2</v>
+        <f t="shared" si="5"/>
+        <v>-0.1112256351102241</v>
       </c>
       <c r="E15" s="3">
-        <v>-2.1613E-2</v>
+        <v>-0.11122600000000001</v>
       </c>
       <c r="F15">
-        <v>8.4405999999999995E-2</v>
+        <v>-2.1069000000000001E-2</v>
       </c>
       <c r="G15">
-        <v>-0.10602</v>
+        <v>-9.0157000000000001E-2</v>
       </c>
       <c r="H15">
-        <v>8.4405999999999995E-2</v>
+        <v>-2.1069000000000001E-2</v>
       </c>
       <c r="J15">
-        <v>3.1254770000000001</v>
+        <v>9.2230000000000003E-3</v>
       </c>
       <c r="K15">
-        <v>3.0950000000000001E-3</v>
+        <v>-9.2230000000000003E-3</v>
       </c>
       <c r="L15">
-        <v>3.0950000000000001E-3</v>
+        <v>-9.2230000000000003E-3</v>
       </c>
       <c r="M15">
         <f t="shared" si="1"/>
-        <v>3.1285720000000001</v>
-      </c>
-      <c r="N15">
-        <v>3.128571</v>
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
       </c>
       <c r="O15">
-        <f t="shared" si="6"/>
-        <v>-2.1614000000000008E-2</v>
+        <f t="shared" si="7"/>
+        <v>-0.11122600000000001</v>
       </c>
       <c r="P15">
-        <f t="shared" si="5"/>
-        <v>2.8332129999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.833215</v>
       </c>
       <c r="Q15">
-        <f t="shared" si="2"/>
-        <v>16.999994151045328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000028151067635</v>
+      </c>
+      <c r="S15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="B16">
@@ -1281,53 +1392,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D16">
-        <f t="shared" si="4"/>
-        <v>2.9660524555869769</v>
+        <f t="shared" si="5"/>
+        <v>0.1112256351102241</v>
       </c>
       <c r="E16" s="3">
-        <v>2.9660519999999999</v>
+        <v>0.11122600000000001</v>
       </c>
       <c r="F16">
-        <v>2.9802849999999999</v>
+        <v>0.12720699999999999</v>
       </c>
       <c r="G16">
-        <v>-1.4232E-2</v>
+        <v>-1.5980999999999999E-2</v>
       </c>
       <c r="H16">
-        <v>2.9802849999999999</v>
+        <v>0.12720699999999999</v>
       </c>
       <c r="J16">
-        <v>-0.149676</v>
+        <v>1.6417000000000001E-2</v>
       </c>
       <c r="K16">
-        <v>6.5627000000000005E-2</v>
+        <v>8.3666000000000004E-2</v>
       </c>
       <c r="L16">
-        <v>6.5627000000000005E-2</v>
+        <v>8.3666000000000004E-2</v>
       </c>
       <c r="M16">
         <f t="shared" si="1"/>
-        <v>-8.4048999999999999E-2</v>
-      </c>
-      <c r="N16">
-        <v>-8.4048999999999999E-2</v>
+        <v>0.10008300000000001</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.10008300000000001</v>
       </c>
       <c r="O16">
-        <f t="shared" si="6"/>
-        <v>2.9660530000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.11122599999999999</v>
       </c>
       <c r="P16">
-        <f t="shared" si="5"/>
-        <v>2.944439</v>
+        <f t="shared" si="6"/>
+        <v>2.9444409999999999</v>
       </c>
       <c r="Q16">
-        <f t="shared" si="2"/>
-        <v>19.000000395837635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000038395876423</v>
+      </c>
+      <c r="S16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="B17">
@@ -1338,53 +1452,56 @@
         <v>2.8332133440562162</v>
       </c>
       <c r="D17">
-        <f t="shared" si="4"/>
-        <v>-0.13283911153076078</v>
+        <f t="shared" si="5"/>
+        <v>-0.1112256351102241</v>
       </c>
       <c r="E17" s="3">
-        <v>-0.13283900000000001</v>
+        <v>-0.11122600000000001</v>
       </c>
       <c r="F17">
-        <v>-2.5423999999999999E-2</v>
+        <v>-2.7217999999999999E-2</v>
       </c>
       <c r="G17">
-        <v>-0.107415</v>
+        <v>-8.4006999999999998E-2</v>
       </c>
       <c r="H17">
-        <v>-2.5423999999999999E-2</v>
+        <v>-2.7217999999999999E-2</v>
       </c>
       <c r="J17">
-        <v>3.0509219999999999</v>
+        <v>-6.7149E-2</v>
       </c>
       <c r="K17">
-        <v>-2.2433999999999999E-2</v>
+        <v>-3.2934999999999999E-2</v>
       </c>
       <c r="L17">
-        <v>-2.2433999999999999E-2</v>
+        <v>-3.2934999999999999E-2</v>
       </c>
       <c r="M17">
         <f t="shared" si="1"/>
-        <v>3.0284879999999998</v>
-      </c>
-      <c r="N17">
-        <v>3.0284879999999998</v>
+        <v>-0.10008400000000001</v>
+      </c>
+      <c r="N17" s="3">
+        <v>-0.10008300000000001</v>
       </c>
       <c r="O17">
-        <f t="shared" si="6"/>
-        <v>-0.13283899999999998</v>
+        <f t="shared" si="7"/>
+        <v>-0.11122499999999999</v>
       </c>
       <c r="P17">
-        <f t="shared" si="5"/>
-        <v>2.8332139999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.8332159999999997</v>
       </c>
       <c r="Q17">
-        <f t="shared" si="2"/>
-        <v>17.000011151047982</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>17.000045151104281</v>
+      </c>
+      <c r="S17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="B18">
@@ -1395,53 +1512,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D18">
-        <f t="shared" si="4"/>
-        <v>3.077278090697201</v>
+        <f t="shared" si="5"/>
+        <v>0.1112256351102241</v>
       </c>
       <c r="E18" s="3">
-        <v>3.0772780000000002</v>
+        <v>0.11122600000000001</v>
       </c>
       <c r="F18">
-        <v>3.0746739999999999</v>
+        <v>0.105598</v>
       </c>
       <c r="G18">
-        <v>2.604E-3</v>
+        <v>5.6280000000000002E-3</v>
       </c>
       <c r="H18">
-        <v>3.0746739999999999</v>
+        <v>0.105598</v>
       </c>
       <c r="J18">
-        <v>-1.2836E-2</v>
+        <v>5.9998000000000003E-2</v>
       </c>
       <c r="K18">
-        <v>2.8871000000000001E-2</v>
+        <v>4.0085999999999997E-2</v>
       </c>
       <c r="L18">
-        <v>2.8871000000000001E-2</v>
+        <v>4.0085999999999997E-2</v>
       </c>
       <c r="M18">
         <f t="shared" si="1"/>
-        <v>1.6035000000000001E-2</v>
-      </c>
-      <c r="N18">
-        <v>1.6035000000000001E-2</v>
+        <v>0.10008400000000001</v>
+      </c>
+      <c r="N18" s="3">
+        <v>0.10008300000000001</v>
       </c>
       <c r="O18">
-        <f t="shared" si="6"/>
-        <v>3.0772779999999997</v>
+        <f t="shared" si="7"/>
+        <v>0.11122599999999999</v>
       </c>
       <c r="P18">
-        <f t="shared" si="5"/>
-        <v>2.9444389999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.9444419999999996</v>
       </c>
       <c r="Q18">
-        <f t="shared" si="2"/>
-        <v>19.000000395837628</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000057395924316</v>
+      </c>
+      <c r="S18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="B19">
@@ -1452,53 +1572,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D19">
-        <f t="shared" si="4"/>
-        <v>-0.13283911153076078</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E19" s="3">
-        <v>-0.13283900000000001</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>-7.4167999999999998E-2</v>
+        <v>2.2317E-2</v>
       </c>
       <c r="G19">
-        <v>-5.8671000000000001E-2</v>
+        <v>-2.2317E-2</v>
       </c>
       <c r="H19">
-        <v>-7.4167999999999998E-2</v>
+        <v>2.2317E-2</v>
       </c>
       <c r="J19">
-        <v>2.9833219999999998</v>
+        <v>-3.1829999999999997E-2</v>
       </c>
       <c r="K19">
-        <v>-5.4917000000000001E-2</v>
+        <v>-6.8252999999999994E-2</v>
       </c>
       <c r="L19">
-        <v>-5.4917000000000001E-2</v>
+        <v>-6.8252999999999994E-2</v>
       </c>
       <c r="M19">
         <f t="shared" si="1"/>
-        <v>2.9284049999999997</v>
-      </c>
-      <c r="N19">
-        <v>2.928404</v>
+        <v>-0.10008299999999999</v>
+      </c>
+      <c r="N19" s="3">
+        <v>-0.10008300000000001</v>
       </c>
       <c r="O19">
-        <f t="shared" si="6"/>
-        <v>-0.13283899999999998</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P19">
-        <f t="shared" si="5"/>
-        <v>2.9444389999999996</v>
+        <f t="shared" si="6"/>
+        <v>2.9444419999999996</v>
       </c>
       <c r="Q19">
-        <f t="shared" si="2"/>
-        <v>19.000000395837628</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000057395924316</v>
+      </c>
+      <c r="S19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="B20">
@@ -1509,53 +1632,56 @@
         <v>2.9957322735539909</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
-        <v>3.1285713850847516</v>
+        <f t="shared" si="5"/>
+        <v>5.1293294387550592E-2</v>
       </c>
       <c r="E20" s="3">
-        <v>3.128571</v>
+        <v>5.1292999999999998E-2</v>
       </c>
       <c r="F20">
-        <v>3.046637</v>
+        <v>-2.3990999999999998E-2</v>
       </c>
       <c r="G20">
-        <v>8.1934000000000007E-2</v>
+        <v>7.5284000000000004E-2</v>
       </c>
       <c r="H20">
-        <v>3.046637</v>
+        <v>-2.3990999999999998E-2</v>
       </c>
       <c r="J20">
-        <v>7.3899000000000006E-2</v>
+        <v>5.2548999999999998E-2</v>
       </c>
       <c r="K20">
-        <v>-6.5709999999999996E-3</v>
+        <v>-1.255E-3</v>
       </c>
       <c r="L20">
-        <v>-6.5709999999999996E-3</v>
+        <v>-1.255E-3</v>
       </c>
       <c r="M20">
         <f t="shared" si="1"/>
-        <v>6.7328000000000013E-2</v>
-      </c>
-      <c r="N20">
-        <v>6.7327999999999999E-2</v>
+        <v>5.1293999999999999E-2</v>
+      </c>
+      <c r="N20" s="3">
+        <v>5.1292999999999998E-2</v>
       </c>
       <c r="O20">
-        <f t="shared" si="6"/>
-        <v>3.128571</v>
+        <f t="shared" si="7"/>
+        <v>5.1293000000000005E-2</v>
       </c>
       <c r="P20">
-        <f t="shared" si="5"/>
-        <v>2.9957319999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.9957349999999994</v>
       </c>
       <c r="Q20">
-        <f t="shared" si="2"/>
-        <v>19.999994528920926</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20.000054528994504</v>
+      </c>
+      <c r="S20">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="B21">
@@ -1566,53 +1692,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D21">
-        <f t="shared" si="4"/>
-        <v>-0.18413240591831137</v>
+        <f t="shared" si="5"/>
+        <v>-5.1293294387550592E-2</v>
       </c>
       <c r="E21" s="3">
-        <v>-0.18413199999999999</v>
+        <v>-5.1292999999999998E-2</v>
       </c>
       <c r="F21">
-        <v>-0.16033900000000001</v>
+        <v>-5.2349E-2</v>
       </c>
       <c r="G21">
-        <v>-2.3793999999999999E-2</v>
+        <v>1.0549999999999999E-3</v>
       </c>
       <c r="H21">
-        <v>-0.16033900000000001</v>
+        <v>-5.2349E-2</v>
       </c>
       <c r="J21">
-        <v>2.9461020000000002</v>
+        <v>2.7052E-2</v>
       </c>
       <c r="K21">
-        <v>-1.7697999999999998E-2</v>
+        <v>-2.7052E-2</v>
       </c>
       <c r="L21">
-        <v>-1.7697999999999998E-2</v>
+        <v>-2.7052E-2</v>
       </c>
       <c r="M21">
         <f t="shared" si="1"/>
-        <v>2.928404</v>
-      </c>
-      <c r="N21">
-        <v>2.928404</v>
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
       </c>
       <c r="O21">
-        <f t="shared" si="6"/>
-        <v>-0.18413300000000002</v>
+        <f t="shared" si="7"/>
+        <v>-5.1293999999999999E-2</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
-        <v>2.9444379999999999</v>
+        <f t="shared" si="6"/>
+        <v>2.9444409999999994</v>
       </c>
       <c r="Q21">
-        <f t="shared" si="2"/>
-        <v>18.999981395846739</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000038395876416</v>
+      </c>
+      <c r="S21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="B22">
@@ -1623,53 +1752,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D22">
-        <f t="shared" si="4"/>
-        <v>3.1285713850847516</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>3.128571</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>3.1254770000000001</v>
+        <v>9.2230000000000003E-3</v>
       </c>
       <c r="G22">
-        <v>3.0950000000000001E-3</v>
+        <v>-9.2230000000000003E-3</v>
       </c>
       <c r="H22">
-        <v>3.1254770000000001</v>
+        <v>9.2230000000000003E-3</v>
       </c>
       <c r="J22">
-        <v>9.1841999999999993E-2</v>
+        <v>1.5772000000000001E-2</v>
       </c>
       <c r="K22">
-        <v>-2.4514000000000001E-2</v>
+        <v>-1.5772000000000001E-2</v>
       </c>
       <c r="L22">
-        <v>-2.4514000000000001E-2</v>
+        <v>-1.5772000000000001E-2</v>
       </c>
       <c r="M22">
         <f t="shared" si="1"/>
-        <v>6.7327999999999999E-2</v>
-      </c>
-      <c r="N22">
-        <v>6.7327999999999999E-2</v>
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
+        <v>0</v>
       </c>
       <c r="O22">
-        <f t="shared" si="6"/>
-        <v>3.1285720000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P22">
-        <f t="shared" si="5"/>
-        <v>2.944439</v>
+        <f t="shared" si="6"/>
+        <v>2.9444409999999994</v>
       </c>
       <c r="Q22">
-        <f t="shared" si="2"/>
-        <v>19.000000395837635</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000038395876416</v>
+      </c>
+      <c r="S22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="B23">
@@ -1680,53 +1812,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D23">
-        <f t="shared" si="4"/>
-        <v>-8.4048947361328619E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10008345855698275</v>
       </c>
       <c r="E23" s="3">
-        <v>-8.4048999999999999E-2</v>
+        <v>0.10008300000000001</v>
       </c>
       <c r="F23">
-        <v>-0.149676</v>
+        <v>1.6417000000000001E-2</v>
       </c>
       <c r="G23">
-        <v>6.5627000000000005E-2</v>
+        <v>8.3666000000000004E-2</v>
       </c>
       <c r="H23">
-        <v>-0.149676</v>
+        <v>1.6417000000000001E-2</v>
       </c>
       <c r="J23">
-        <v>2.941322</v>
+        <v>2.6655000000000002E-2</v>
       </c>
       <c r="K23">
-        <v>-6.4211000000000004E-2</v>
+        <v>-7.7948000000000003E-2</v>
       </c>
       <c r="L23">
-        <v>-6.4211000000000004E-2</v>
+        <v>-7.7948000000000003E-2</v>
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>2.8771110000000002</v>
-      </c>
-      <c r="N23">
-        <v>2.8771110000000002</v>
+        <v>-5.1293000000000005E-2</v>
+      </c>
+      <c r="N23" s="3">
+        <v>-5.1292999999999998E-2</v>
       </c>
       <c r="O23">
-        <f t="shared" si="6"/>
-        <v>-8.4048999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10008300000000001</v>
       </c>
       <c r="P23">
-        <f t="shared" si="5"/>
-        <v>3.0445230000000003</v>
+        <f t="shared" si="6"/>
+        <v>3.0445239999999996</v>
       </c>
       <c r="Q23">
-        <f t="shared" si="2"/>
-        <v>21.000011807811443</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000032807833737</v>
+      </c>
+      <c r="S23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="B24">
@@ -1737,53 +1872,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D24">
-        <f t="shared" si="4"/>
-        <v>3.0284879265277689</v>
+        <f t="shared" si="5"/>
+        <v>-0.10008345855698275</v>
       </c>
       <c r="E24" s="3">
-        <v>3.0284879999999998</v>
+        <v>-0.10008300000000001</v>
       </c>
       <c r="F24">
-        <v>3.0509219999999999</v>
+        <v>-6.7149E-2</v>
       </c>
       <c r="G24">
-        <v>-2.2433999999999999E-2</v>
+        <v>-3.2934999999999999E-2</v>
       </c>
       <c r="H24">
-        <v>3.0509219999999999</v>
+        <v>-6.7149E-2</v>
       </c>
       <c r="J24">
-        <v>0.15232799999999999</v>
+        <v>7.4407000000000001E-2</v>
       </c>
       <c r="K24">
-        <v>6.1603999999999999E-2</v>
+        <v>7.2195999999999996E-2</v>
       </c>
       <c r="L24">
-        <v>6.1603999999999999E-2</v>
+        <v>7.2195999999999996E-2</v>
       </c>
       <c r="M24">
         <f t="shared" si="1"/>
-        <v>0.21393199999999998</v>
-      </c>
-      <c r="N24">
-        <v>0.21393100000000001</v>
+        <v>0.14660299999999998</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0.14660300000000001</v>
       </c>
       <c r="O24">
-        <f t="shared" si="6"/>
-        <v>3.0284879999999998</v>
+        <f t="shared" si="7"/>
+        <v>-0.10008400000000001</v>
       </c>
       <c r="P24">
-        <f t="shared" si="5"/>
-        <v>2.944439</v>
+        <f t="shared" si="6"/>
+        <v>2.9444399999999997</v>
       </c>
       <c r="Q24">
-        <f t="shared" si="2"/>
-        <v>19.000000395837635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000019395847527</v>
+      </c>
+      <c r="S24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="B25">
@@ -1794,53 +1932,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D25">
-        <f t="shared" si="4"/>
-        <v>1.6034511195654133E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.10008345855698275</v>
       </c>
       <c r="E25" s="3">
-        <v>1.6035000000000001E-2</v>
+        <v>0.10008300000000001</v>
       </c>
       <c r="F25">
-        <v>-1.2836E-2</v>
+        <v>5.9998000000000003E-2</v>
       </c>
       <c r="G25">
-        <v>2.8871000000000001E-2</v>
+        <v>4.0085999999999997E-2</v>
       </c>
       <c r="H25">
-        <v>-1.2836E-2</v>
+        <v>5.9998000000000003E-2</v>
       </c>
       <c r="J25">
-        <v>2.7796500000000002</v>
+        <v>-8.3549999999999999E-2</v>
       </c>
       <c r="K25">
-        <v>5.0941E-2</v>
+        <v>3.703E-2</v>
       </c>
       <c r="L25">
-        <v>5.0941E-2</v>
+        <v>3.703E-2</v>
       </c>
       <c r="M25">
         <f t="shared" si="1"/>
-        <v>2.8305910000000001</v>
-      </c>
-      <c r="N25">
-        <v>2.8305910000000001</v>
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="N25" s="3">
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="O25">
-        <f t="shared" si="6"/>
-        <v>1.6035000000000001E-2</v>
+        <f t="shared" si="7"/>
+        <v>0.10008400000000001</v>
       </c>
       <c r="P25">
-        <f t="shared" si="5"/>
-        <v>3.0445229999999999</v>
+        <f t="shared" si="6"/>
+        <v>3.0445239999999996</v>
       </c>
       <c r="Q25">
-        <f t="shared" si="2"/>
-        <v>21.000011807811433</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000032807833737</v>
+      </c>
+      <c r="S25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="B26">
@@ -1851,53 +1992,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D26">
-        <f t="shared" si="4"/>
-        <v>2.9284044679707861</v>
+        <f t="shared" si="5"/>
+        <v>-0.10008345855698275</v>
       </c>
       <c r="E26" s="3">
-        <v>2.928404</v>
+        <v>-0.10008300000000001</v>
       </c>
       <c r="F26">
-        <v>2.9833219999999998</v>
+        <v>-3.1829999999999997E-2</v>
       </c>
       <c r="G26">
-        <v>-5.4917000000000001E-2</v>
+        <v>-6.8252999999999994E-2</v>
       </c>
       <c r="H26">
-        <v>2.9833219999999998</v>
+        <v>-3.1829999999999997E-2</v>
       </c>
       <c r="J26">
-        <v>0.20094100000000001</v>
+        <v>-1.453E-2</v>
       </c>
       <c r="K26">
-        <v>1.2991000000000001E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="L26">
-        <v>1.2991000000000001E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="M26">
         <f t="shared" si="1"/>
-        <v>0.21393200000000001</v>
-      </c>
-      <c r="N26">
-        <v>0.21393100000000001</v>
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
-        <v>2.9284049999999997</v>
+        <f t="shared" si="7"/>
+        <v>-0.10008299999999999</v>
       </c>
       <c r="P26">
-        <f t="shared" si="5"/>
-        <v>2.9444399999999997</v>
+        <f t="shared" si="6"/>
+        <v>2.9444409999999994</v>
       </c>
       <c r="Q26">
-        <f t="shared" si="2"/>
-        <v>19.000019395847527</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000038395876416</v>
+      </c>
+      <c r="S26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="B27">
@@ -1908,53 +2052,56 @@
         <v>2.9957322735539909</v>
       </c>
       <c r="D27">
-        <f t="shared" si="4"/>
-        <v>6.7327805583204725E-2</v>
+        <f t="shared" si="5"/>
+        <v>5.1293294387550592E-2</v>
       </c>
       <c r="E27" s="3">
-        <v>6.7327999999999999E-2</v>
+        <v>5.1292999999999998E-2</v>
       </c>
       <c r="F27">
-        <v>7.3899000000000006E-2</v>
+        <v>5.2548999999999998E-2</v>
       </c>
       <c r="G27">
-        <v>-6.5709999999999996E-3</v>
+        <v>-1.255E-3</v>
       </c>
       <c r="H27">
-        <v>7.3899000000000006E-2</v>
+        <v>5.2548999999999998E-2</v>
       </c>
       <c r="J27">
-        <v>2.8199550000000002</v>
+        <v>1.1774E-2</v>
       </c>
       <c r="K27">
-        <v>5.7155999999999998E-2</v>
+        <v>3.4745999999999999E-2</v>
       </c>
       <c r="L27">
-        <v>5.7155999999999998E-2</v>
+        <v>3.4745999999999999E-2</v>
       </c>
       <c r="M27">
         <f t="shared" si="1"/>
-        <v>2.8771110000000002</v>
-      </c>
-      <c r="N27">
-        <v>2.8771110000000002</v>
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="N27" s="3">
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="O27">
-        <f t="shared" si="6"/>
-        <v>6.7328000000000013E-2</v>
+        <f t="shared" si="7"/>
+        <v>5.1293999999999999E-2</v>
       </c>
       <c r="P27">
-        <f t="shared" si="5"/>
-        <v>2.9957329999999995</v>
+        <f t="shared" si="6"/>
+        <v>2.9957349999999994</v>
       </c>
       <c r="Q27">
-        <f t="shared" si="2"/>
-        <v>20.000014528925448</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20.000054528994504</v>
+      </c>
+      <c r="S27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="B28">
@@ -1965,53 +2112,56 @@
         <v>2.9957322735539909</v>
       </c>
       <c r="D28">
-        <f t="shared" si="4"/>
-        <v>2.9284044679707861</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E28" s="3">
-        <v>2.928404</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>2.9461020000000002</v>
+        <v>2.7052E-2</v>
       </c>
       <c r="G28">
-        <v>-1.7697999999999998E-2</v>
+        <v>-2.7052E-2</v>
       </c>
       <c r="H28">
-        <v>2.9461020000000002</v>
+        <v>2.7052E-2</v>
       </c>
       <c r="J28">
-        <v>0.158583</v>
+        <v>-4.9738999999999998E-2</v>
       </c>
       <c r="K28">
-        <v>8.829E-3</v>
+        <v>3.2190000000000001E-3</v>
       </c>
       <c r="L28">
-        <v>8.829E-3</v>
+        <v>3.2190000000000001E-3</v>
       </c>
       <c r="M28">
         <f t="shared" si="1"/>
-        <v>0.16741200000000001</v>
-      </c>
-      <c r="N28">
-        <v>0.167411</v>
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="N28" s="3">
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="O28">
-        <f t="shared" si="6"/>
-        <v>2.928404</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P28">
-        <f t="shared" si="5"/>
-        <v>2.9957319999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.9957349999999994</v>
       </c>
       <c r="Q28">
-        <f t="shared" si="2"/>
-        <v>19.999994528920926</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20.000054528994504</v>
+      </c>
+      <c r="S28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="B29">
@@ -2022,53 +2172,56 @@
         <v>2.9957322735539909</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
-        <v>6.7327805583204725E-2</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E29" s="3">
-        <v>6.7327999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>9.1841999999999993E-2</v>
+        <v>1.5772000000000001E-2</v>
       </c>
       <c r="G29">
-        <v>-2.4514000000000001E-2</v>
+        <v>-1.5772000000000001E-2</v>
       </c>
       <c r="H29">
-        <v>9.1841999999999993E-2</v>
+        <v>1.5772000000000001E-2</v>
       </c>
       <c r="J29">
-        <v>2.8748529999999999</v>
+        <v>2.5082E-2</v>
       </c>
       <c r="K29">
-        <v>4.8778000000000002E-2</v>
+        <v>2.1437999999999999E-2</v>
       </c>
       <c r="L29">
-        <v>4.8778000000000002E-2</v>
+        <v>2.1437999999999999E-2</v>
       </c>
       <c r="M29">
         <f t="shared" si="1"/>
-        <v>2.9236309999999999</v>
-      </c>
-      <c r="N29">
-        <v>2.9236309999999999</v>
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="N29" s="3">
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="O29">
-        <f t="shared" si="6"/>
-        <v>6.7327999999999999E-2</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P29">
-        <f t="shared" si="5"/>
-        <v>2.9957319999999998</v>
+        <f t="shared" si="6"/>
+        <v>2.9957349999999994</v>
       </c>
       <c r="Q29">
-        <f t="shared" si="2"/>
-        <v>19.999994528920926</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>20.000054528994504</v>
+      </c>
+      <c r="S29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="B30">
@@ -2079,53 +2232,56 @@
         <v>2.9444389791664403</v>
       </c>
       <c r="D30">
-        <f t="shared" si="4"/>
-        <v>2.8771111735832355</v>
+        <f t="shared" si="5"/>
+        <v>-5.1293294387550592E-2</v>
       </c>
       <c r="E30" s="3">
-        <v>2.8771110000000002</v>
+        <v>-5.1292999999999998E-2</v>
       </c>
       <c r="F30">
-        <v>2.941322</v>
+        <v>2.6655000000000002E-2</v>
       </c>
       <c r="G30">
-        <v>-6.4211000000000004E-2</v>
+        <v>-7.7948000000000003E-2</v>
       </c>
       <c r="H30">
-        <v>2.941322</v>
+        <v>2.6655000000000002E-2</v>
       </c>
       <c r="J30">
-        <v>0.16858200000000001</v>
+        <v>4.0249999999999999E-3</v>
       </c>
       <c r="K30">
-        <v>0.165883</v>
+        <v>0.16303000000000001</v>
       </c>
       <c r="L30">
-        <v>0.165883</v>
+        <v>0.16303000000000001</v>
       </c>
       <c r="M30">
         <f t="shared" si="1"/>
-        <v>0.33446500000000001</v>
-      </c>
-      <c r="N30">
-        <v>0.33446500000000001</v>
+        <v>0.16705500000000001</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0.16705400000000001</v>
       </c>
       <c r="O30">
-        <f t="shared" si="6"/>
-        <v>2.8771110000000002</v>
+        <f t="shared" si="7"/>
+        <v>-5.1293000000000005E-2</v>
       </c>
       <c r="P30">
-        <f t="shared" si="5"/>
-        <v>2.944439</v>
+        <f t="shared" si="6"/>
+        <v>2.9444419999999996</v>
       </c>
       <c r="Q30">
-        <f t="shared" si="2"/>
-        <v>19.000000395837635</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>19.000057395924316</v>
+      </c>
+      <c r="S30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="B31">
@@ -2136,53 +2292,56 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D31">
-        <f t="shared" si="4"/>
-        <v>0.21393127977508053</v>
+        <f t="shared" si="5"/>
+        <v>0.1466034741918758</v>
       </c>
       <c r="E31" s="3">
-        <v>0.21393100000000001</v>
+        <v>0.14660300000000001</v>
       </c>
       <c r="F31">
-        <v>0.15232799999999999</v>
+        <v>7.4407000000000001E-2</v>
       </c>
       <c r="G31">
-        <v>6.1603999999999999E-2</v>
+        <v>7.2195999999999996E-2</v>
       </c>
       <c r="H31">
-        <v>0.15232799999999999</v>
+        <v>7.4407000000000001E-2</v>
       </c>
       <c r="J31">
-        <v>2.7222930000000001</v>
+        <v>-0.16408300000000001</v>
       </c>
       <c r="K31">
-        <v>-1.2236E-2</v>
+        <v>-4.9492000000000001E-2</v>
       </c>
       <c r="L31">
-        <v>-1.2236E-2</v>
+        <v>-4.9492000000000001E-2</v>
       </c>
       <c r="M31">
         <f t="shared" si="1"/>
-        <v>2.7100569999999999</v>
-      </c>
-      <c r="N31">
-        <v>2.7100569999999999</v>
+        <v>-0.21357500000000001</v>
+      </c>
+      <c r="N31" s="3">
+        <v>-0.21357400000000001</v>
       </c>
       <c r="O31">
-        <f t="shared" si="6"/>
-        <v>0.21393199999999998</v>
+        <f t="shared" si="7"/>
+        <v>0.14660299999999998</v>
       </c>
       <c r="P31">
-        <f t="shared" si="5"/>
-        <v>3.091043</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q31">
-        <f t="shared" si="2"/>
-        <v>22.000012026120338</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S31">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="B32">
@@ -2193,53 +2352,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D32">
-        <f t="shared" si="4"/>
-        <v>2.8305911579483425</v>
+        <f t="shared" si="5"/>
+        <v>-4.6520015634893053E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>2.8305910000000001</v>
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="F32">
-        <v>2.7796500000000002</v>
+        <v>-8.3549999999999999E-2</v>
       </c>
       <c r="G32">
-        <v>5.0941E-2</v>
+        <v>3.703E-2</v>
       </c>
       <c r="H32">
-        <v>2.7796500000000002</v>
+        <v>-8.3549999999999999E-2</v>
       </c>
       <c r="J32">
-        <v>0.40302300000000002</v>
+        <v>9.0770000000000003E-2</v>
       </c>
       <c r="K32">
-        <v>-6.8557999999999994E-2</v>
+        <v>-9.0770000000000003E-2</v>
       </c>
       <c r="L32">
-        <v>-6.8557999999999994E-2</v>
+        <v>-9.0770000000000003E-2</v>
       </c>
       <c r="M32">
         <f t="shared" si="1"/>
-        <v>0.33446500000000001</v>
-      </c>
-      <c r="N32">
-        <v>0.33446500000000001</v>
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
       </c>
       <c r="O32">
-        <f t="shared" si="6"/>
-        <v>2.8305910000000001</v>
+        <f t="shared" si="7"/>
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="P32">
-        <f t="shared" si="5"/>
-        <v>3.0445229999999999</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q32">
-        <f t="shared" si="2"/>
-        <v>21.000011807811433</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S32">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="B33">
@@ -2250,53 +2412,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D33">
-        <f t="shared" si="4"/>
-        <v>0.21393127977508053</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E33" s="3">
-        <v>0.21393100000000001</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.20094100000000001</v>
+        <v>-1.453E-2</v>
       </c>
       <c r="G33">
-        <v>1.2991000000000001E-2</v>
+        <v>1.453E-2</v>
       </c>
       <c r="H33">
-        <v>0.20094100000000001</v>
+        <v>-1.453E-2</v>
       </c>
       <c r="J33">
-        <v>2.7693789999999998</v>
+        <v>9.3201000000000006E-2</v>
       </c>
       <c r="K33">
-        <v>-5.9322E-2</v>
+        <v>-9.3201000000000006E-2</v>
       </c>
       <c r="L33">
-        <v>-5.9322E-2</v>
+        <v>-9.3201000000000006E-2</v>
       </c>
       <c r="M33">
         <f t="shared" si="1"/>
-        <v>2.7100569999999999</v>
-      </c>
-      <c r="N33">
-        <v>2.7100569999999999</v>
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
       </c>
       <c r="O33">
-        <f t="shared" si="6"/>
-        <v>0.21393200000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P33">
-        <f t="shared" si="5"/>
-        <v>3.0445229999999999</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q33">
-        <f t="shared" si="2"/>
-        <v>21.000011807811433</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S33">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="B34">
@@ -2307,53 +2472,56 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D34">
-        <f t="shared" si="4"/>
-        <v>2.8771111735832355</v>
+        <f t="shared" si="5"/>
+        <v>4.6520015634893053E-2</v>
       </c>
       <c r="E34" s="3">
-        <v>2.8771110000000002</v>
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="F34">
-        <v>2.8199550000000002</v>
+        <v>1.1774E-2</v>
       </c>
       <c r="G34">
-        <v>5.7155999999999998E-2</v>
+        <v>3.4745999999999999E-2</v>
       </c>
       <c r="H34">
-        <v>2.8199550000000002</v>
+        <v>1.1774E-2</v>
       </c>
       <c r="J34">
-        <v>0.37316899999999997</v>
+        <v>5.0159000000000002E-2</v>
       </c>
       <c r="K34">
-        <v>7.816E-3</v>
+        <v>-3.6389999999999999E-3</v>
       </c>
       <c r="L34">
-        <v>7.816E-3</v>
+        <v>-3.6389999999999999E-3</v>
       </c>
       <c r="M34">
         <f t="shared" si="1"/>
-        <v>0.38098499999999996</v>
-      </c>
-      <c r="N34">
-        <v>0.38098500000000002</v>
+        <v>4.6520000000000006E-2</v>
+      </c>
+      <c r="N34" s="3">
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="O34">
-        <f t="shared" si="6"/>
-        <v>2.8771110000000002</v>
+        <f t="shared" si="7"/>
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="P34">
-        <f t="shared" si="5"/>
-        <v>3.091043</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q34">
-        <f t="shared" si="2"/>
-        <v>22.000012026120338</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="B35">
@@ -2364,53 +2532,56 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D35">
-        <f t="shared" si="4"/>
-        <v>0.16741126414018748</v>
+        <f t="shared" si="5"/>
+        <v>-4.6520015634893053E-2</v>
       </c>
       <c r="E35" s="3">
-        <v>0.167411</v>
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="F35">
-        <v>0.158583</v>
+        <v>-4.9738999999999998E-2</v>
       </c>
       <c r="G35">
-        <v>8.829E-3</v>
+        <v>3.2190000000000001E-3</v>
       </c>
       <c r="H35">
-        <v>0.158583</v>
+        <v>-4.9738999999999998E-2</v>
       </c>
       <c r="J35">
-        <v>2.7343799999999998</v>
+        <v>4.4608000000000002E-2</v>
       </c>
       <c r="K35">
-        <v>-2.4323000000000001E-2</v>
+        <v>-4.4608000000000002E-2</v>
       </c>
       <c r="L35">
-        <v>-2.4323000000000001E-2</v>
+        <v>-4.4608000000000002E-2</v>
       </c>
       <c r="M35">
         <f t="shared" si="1"/>
-        <v>2.7100569999999999</v>
-      </c>
-      <c r="N35">
-        <v>2.7100569999999999</v>
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
       </c>
       <c r="O35">
-        <f t="shared" si="6"/>
-        <v>0.16741200000000001</v>
+        <f t="shared" si="7"/>
+        <v>-4.6519999999999999E-2</v>
       </c>
       <c r="P35">
-        <f t="shared" si="5"/>
-        <v>3.0445230000000003</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q35">
-        <f t="shared" si="2"/>
-        <v>21.000011807811443</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S35">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="B36">
@@ -2421,53 +2592,56 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D36">
-        <f t="shared" si="4"/>
-        <v>2.9236311892181286</v>
+        <f t="shared" si="5"/>
+        <v>4.6520015634893053E-2</v>
       </c>
       <c r="E36" s="3">
-        <v>2.9236309999999999</v>
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="F36">
-        <v>2.8748529999999999</v>
+        <v>2.5082E-2</v>
       </c>
       <c r="G36">
-        <v>4.8778000000000002E-2</v>
+        <v>2.1437999999999999E-2</v>
       </c>
       <c r="H36">
-        <v>2.8748529999999999</v>
+        <v>2.5082E-2</v>
       </c>
       <c r="J36">
-        <v>0.41280600000000001</v>
+        <v>4.0608999999999999E-2</v>
       </c>
       <c r="K36">
-        <v>-3.1820000000000001E-2</v>
+        <v>-4.0608999999999999E-2</v>
       </c>
       <c r="L36">
-        <v>-3.1820000000000001E-2</v>
+        <v>-4.0608999999999999E-2</v>
       </c>
       <c r="M36">
         <f t="shared" si="1"/>
-        <v>0.38098599999999999</v>
-      </c>
-      <c r="N36">
-        <v>0.38098500000000002</v>
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
       </c>
       <c r="O36">
-        <f t="shared" si="6"/>
-        <v>2.9236309999999999</v>
+        <f t="shared" si="7"/>
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="P36">
-        <f t="shared" si="5"/>
-        <v>3.091043</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q36">
-        <f t="shared" si="2"/>
-        <v>22.000012026120338</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S36">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="B37">
@@ -2478,37 +2652,40 @@
         <v>3.2580965380214821</v>
       </c>
       <c r="D37">
-        <f t="shared" si="4"/>
-        <v>0.33446534880335355</v>
+        <f t="shared" si="5"/>
+        <v>0.16705408466316607</v>
       </c>
       <c r="E37" s="3">
-        <v>0.33446500000000001</v>
+        <v>0.16705400000000001</v>
       </c>
       <c r="F37">
-        <v>0.16858200000000001</v>
+        <v>4.0249999999999999E-3</v>
       </c>
       <c r="G37">
-        <v>0.165883</v>
+        <v>0.16303000000000001</v>
       </c>
       <c r="H37">
-        <v>0.16858200000000001</v>
+        <v>4.0249999999999999E-3</v>
       </c>
       <c r="O37">
-        <f t="shared" si="6"/>
-        <v>0.33446500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0.16705500000000001</v>
       </c>
       <c r="P37">
-        <f t="shared" si="5"/>
-        <v>3.2580960000000001</v>
+        <f t="shared" si="6"/>
+        <v>3.2580999999999993</v>
       </c>
       <c r="Q37">
-        <f t="shared" si="2"/>
-        <v>25.999986011445234</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>26.000090011597258</v>
+      </c>
+      <c r="S37">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="B38">
@@ -2519,37 +2696,40 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D38">
-        <f t="shared" si="4"/>
-        <v>2.7100570889200695</v>
+        <f t="shared" si="5"/>
+        <v>-0.21357410029805912</v>
       </c>
       <c r="E38" s="3">
-        <v>2.7100569999999999</v>
+        <v>-0.21357400000000001</v>
       </c>
       <c r="F38">
-        <v>2.7222930000000001</v>
+        <v>-0.16408300000000001</v>
       </c>
       <c r="G38">
-        <v>-1.2236E-2</v>
+        <v>-4.9492000000000001E-2</v>
       </c>
       <c r="H38">
-        <v>2.7222930000000001</v>
+        <v>-0.16408300000000001</v>
       </c>
       <c r="O38">
-        <f t="shared" si="6"/>
-        <v>2.7100569999999999</v>
+        <f t="shared" si="7"/>
+        <v>-0.21357500000000001</v>
       </c>
       <c r="P38">
-        <f t="shared" si="5"/>
-        <v>3.0445219999999997</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q38">
-        <f t="shared" si="2"/>
-        <v>20.999990807810125</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S38">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="B39">
@@ -2560,37 +2740,40 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D39">
-        <f t="shared" si="4"/>
-        <v>0.33446534880335355</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E39" s="3">
-        <v>0.33446500000000001</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>0.40302300000000002</v>
+        <v>9.0770000000000003E-2</v>
       </c>
       <c r="G39">
-        <v>-6.8557999999999994E-2</v>
+        <v>-9.0770000000000003E-2</v>
       </c>
       <c r="H39">
-        <v>0.40302300000000002</v>
+        <v>9.0770000000000003E-2</v>
       </c>
       <c r="O39">
-        <f t="shared" si="6"/>
-        <v>0.33446500000000001</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="5"/>
-        <v>3.0445219999999997</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q39">
-        <f t="shared" si="2"/>
-        <v>20.999990807810125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="B40">
@@ -2601,37 +2784,40 @@
         <v>3.044522437723423</v>
       </c>
       <c r="D40">
-        <f t="shared" si="4"/>
-        <v>2.7100570889200695</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E40" s="3">
-        <v>2.7100569999999999</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>2.7693789999999998</v>
+        <v>9.3201000000000006E-2</v>
       </c>
       <c r="G40">
-        <v>-5.9322E-2</v>
+        <v>-9.3201000000000006E-2</v>
       </c>
       <c r="H40">
-        <v>2.7693789999999998</v>
+        <v>9.3201000000000006E-2</v>
       </c>
       <c r="O40">
-        <f t="shared" si="6"/>
-        <v>2.7100569999999999</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="5"/>
-        <v>3.0445219999999997</v>
+        <f t="shared" si="6"/>
+        <v>3.0445249999999993</v>
       </c>
       <c r="Q40">
-        <f t="shared" si="2"/>
-        <v>20.999990807810125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>21.000053807877038</v>
+      </c>
+      <c r="S40">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="B41">
@@ -2642,37 +2828,40 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D41">
-        <f t="shared" si="4"/>
-        <v>0.3809853644382466</v>
+        <f t="shared" si="5"/>
+        <v>4.6520015634893053E-2</v>
       </c>
       <c r="E41" s="3">
-        <v>0.38098500000000002</v>
+        <v>4.6519999999999999E-2</v>
       </c>
       <c r="F41">
-        <v>0.37316899999999997</v>
+        <v>5.0159000000000002E-2</v>
       </c>
       <c r="G41">
-        <v>7.816E-3</v>
+        <v>-3.6389999999999999E-3</v>
       </c>
       <c r="H41">
-        <v>0.37316899999999997</v>
+        <v>5.0159000000000002E-2</v>
       </c>
       <c r="O41">
-        <f t="shared" si="6"/>
-        <v>0.38098499999999996</v>
+        <f t="shared" si="7"/>
+        <v>4.6520000000000006E-2</v>
       </c>
       <c r="P41">
-        <f t="shared" si="5"/>
-        <v>3.0910419999999998</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q41">
-        <f t="shared" si="2"/>
-        <v>21.99999002611931</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S41">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="B42">
@@ -2683,37 +2872,40 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D42">
-        <f t="shared" si="4"/>
-        <v>2.7100570889200695</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>2.7100569999999999</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>2.7343799999999998</v>
+        <v>4.4608000000000002E-2</v>
       </c>
       <c r="G42">
-        <v>-2.4323000000000001E-2</v>
+        <v>-4.4608000000000002E-2</v>
       </c>
       <c r="H42">
-        <v>2.7343799999999998</v>
+        <v>4.4608000000000002E-2</v>
       </c>
       <c r="O42">
-        <f t="shared" si="6"/>
-        <v>2.7100569999999999</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="5"/>
-        <v>3.0910419999999998</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q42">
-        <f t="shared" si="2"/>
-        <v>21.99999002611931</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S42">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="B43">
@@ -2724,32 +2916,833 @@
         <v>3.0910424533583161</v>
       </c>
       <c r="D43">
-        <f t="shared" si="4"/>
-        <v>0.3809853644382466</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>0.38098500000000002</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.41280600000000001</v>
+        <v>4.0608999999999999E-2</v>
       </c>
       <c r="G43">
-        <v>-3.1820000000000001E-2</v>
+        <v>-4.0608999999999999E-2</v>
       </c>
       <c r="H43">
-        <v>0.41280600000000001</v>
+        <v>4.0608999999999999E-2</v>
       </c>
       <c r="O43">
-        <f t="shared" si="6"/>
-        <v>0.38098599999999999</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="5"/>
-        <v>3.091043</v>
+        <f t="shared" si="6"/>
+        <v>3.0910449999999994</v>
       </c>
       <c r="Q43">
-        <f t="shared" si="2"/>
-        <v>22.000012026120338</v>
+        <f t="shared" si="3"/>
+        <v>22.000056026188378</v>
+      </c>
+      <c r="S43">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E97B5895-2125-4046-A61D-7BCAB446790F}">
+  <dimension ref="A1:I39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="C2">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>2.8332130000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <f>1+A2</f>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>5.7158E-2</v>
+      </c>
+      <c r="C3">
+        <v>5.7158E-2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>2.8903720000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <f t="shared" ref="A4:A40" si="0">1+A3</f>
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>-7.7340000000000004E-3</v>
+      </c>
+      <c r="E4">
+        <v>-7.7340000000000004E-3</v>
+      </c>
+      <c r="G4">
+        <v>2.8903720000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="C5">
+        <v>-5.7158E-2</v>
+      </c>
+      <c r="D5">
+        <v>-1.1609E-2</v>
+      </c>
+      <c r="E5">
+        <v>-1.1609E-2</v>
+      </c>
+      <c r="G5">
+        <v>2.8332130000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.211309</v>
+      </c>
+      <c r="C6">
+        <v>0.211309</v>
+      </c>
+      <c r="D6">
+        <v>5.8063999999999998E-2</v>
+      </c>
+      <c r="E6">
+        <v>5.8063999999999998E-2</v>
+      </c>
+      <c r="G6">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="C7">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="D7">
+        <v>-0.12951799999999999</v>
+      </c>
+      <c r="E7">
+        <v>-0.12951799999999999</v>
+      </c>
+      <c r="G7">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="C8">
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.3439999999999999E-3</v>
+      </c>
+      <c r="E8">
+        <v>1.3439999999999999E-3</v>
+      </c>
+      <c r="G8">
+        <v>2.8332130000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.11122600000000001</v>
+      </c>
+      <c r="C9">
+        <v>0.11122600000000001</v>
+      </c>
+      <c r="D9">
+        <v>0.143705</v>
+      </c>
+      <c r="E9">
+        <v>0.143705</v>
+      </c>
+      <c r="G9">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="C10">
+        <v>-0.11122600000000001</v>
+      </c>
+      <c r="D10">
+        <v>-2.7258999999999999E-2</v>
+      </c>
+      <c r="E10">
+        <v>-2.7258999999999999E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.8332130000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0.11122600000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.11122600000000001</v>
+      </c>
+      <c r="D11">
+        <v>5.3073000000000002E-2</v>
+      </c>
+      <c r="E11">
+        <v>5.3073000000000002E-2</v>
+      </c>
+      <c r="G11">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-2.7258999999999999E-2</v>
+      </c>
+      <c r="E12">
+        <v>-2.7258999999999999E-2</v>
+      </c>
+      <c r="G12">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>5.1292999999999998E-2</v>
+      </c>
+      <c r="C13">
+        <v>5.1292999999999998E-2</v>
+      </c>
+      <c r="D13">
+        <v>-3.4798000000000003E-2</v>
+      </c>
+      <c r="E13">
+        <v>-3.4798000000000003E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.9957319999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>-5.1292999999999998E-2</v>
+      </c>
+      <c r="C14">
+        <v>-5.1292999999999998E-2</v>
+      </c>
+      <c r="D14">
+        <v>-2.7616000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>-2.7616000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>3.143E-2</v>
+      </c>
+      <c r="E15">
+        <v>3.143E-2</v>
+      </c>
+      <c r="G15">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0.10008300000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.10008300000000001</v>
+      </c>
+      <c r="D16">
+        <v>3.4907000000000001E-2</v>
+      </c>
+      <c r="E16">
+        <v>3.4907000000000001E-2</v>
+      </c>
+      <c r="G16">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="C17">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="D17">
+        <v>-6.6161999999999999E-2</v>
+      </c>
+      <c r="E17">
+        <v>-6.6161999999999999E-2</v>
+      </c>
+      <c r="G17">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>0.10008300000000001</v>
+      </c>
+      <c r="C18">
+        <v>0.10008300000000001</v>
+      </c>
+      <c r="D18">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="E18">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="C19">
+        <v>-0.10008300000000001</v>
+      </c>
+      <c r="D19">
+        <v>-2.3236E-2</v>
+      </c>
+      <c r="E19">
+        <v>-2.3236E-2</v>
+      </c>
+      <c r="G19">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5.1292999999999998E-2</v>
+      </c>
+      <c r="C20">
+        <v>5.1292999999999998E-2</v>
+      </c>
+      <c r="D20">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="E20">
+        <v>4.9050000000000003E-2</v>
+      </c>
+      <c r="G20">
+        <v>2.9957319999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.5310000000000001E-2</v>
+      </c>
+      <c r="G21">
+        <v>2.9957319999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>-9.0930000000000004E-3</v>
+      </c>
+      <c r="E22">
+        <v>-9.0930000000000004E-3</v>
+      </c>
+      <c r="G22">
+        <v>2.9957319999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>-5.1292999999999998E-2</v>
+      </c>
+      <c r="C23">
+        <v>-5.1292999999999998E-2</v>
+      </c>
+      <c r="D23">
+        <v>1.2907E-2</v>
+      </c>
+      <c r="E23">
+        <v>1.2907E-2</v>
+      </c>
+      <c r="G23">
+        <v>2.944439</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0.14660300000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.14660300000000001</v>
+      </c>
+      <c r="D24">
+        <v>5.3429999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>5.3429999999999998E-2</v>
+      </c>
+      <c r="G24">
+        <v>3.0910419999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="C25">
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="D25">
+        <v>-8.0914E-2</v>
+      </c>
+      <c r="E25">
+        <v>-8.0914E-2</v>
+      </c>
+      <c r="G25">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>-1.3220000000000001E-2</v>
+      </c>
+      <c r="E26">
+        <v>-1.3220000000000001E-2</v>
+      </c>
+      <c r="G26">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="C27">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="D27">
+        <v>3.286E-2</v>
+      </c>
+      <c r="E27">
+        <v>3.286E-2</v>
+      </c>
+      <c r="G27">
+        <v>3.0910419999999998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="C28">
+        <v>-4.6519999999999999E-2</v>
+      </c>
+      <c r="D28">
+        <v>-2.3845000000000002E-2</v>
+      </c>
+      <c r="E28">
+        <v>-2.3845000000000002E-2</v>
+      </c>
+      <c r="G28">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="C29">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="D29">
+        <v>2.9706E-2</v>
+      </c>
+      <c r="E29">
+        <v>2.9706E-2</v>
+      </c>
+      <c r="G29">
+        <v>3.0910419999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0.16705400000000001</v>
+      </c>
+      <c r="C30">
+        <v>0.16705400000000001</v>
+      </c>
+      <c r="D30">
+        <v>-3.8930000000000002E-3</v>
+      </c>
+      <c r="E30">
+        <v>-3.8930000000000002E-3</v>
+      </c>
+      <c r="G30">
+        <v>3.2580969999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>-0.21357400000000001</v>
+      </c>
+      <c r="C31">
+        <v>-0.21357400000000001</v>
+      </c>
+      <c r="D31">
+        <v>-0.13902300000000001</v>
+      </c>
+      <c r="E31">
+        <v>-0.13902300000000001</v>
+      </c>
+      <c r="G31">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0.109986</v>
+      </c>
+      <c r="E32">
+        <v>0.109986</v>
+      </c>
+      <c r="G32">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0.10451000000000001</v>
+      </c>
+      <c r="E33">
+        <v>0.10451000000000001</v>
+      </c>
+      <c r="G33">
+        <v>3.0445220000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.6519999999999999E-2</v>
+      </c>
+      <c r="D34">
+        <v>1.2907E-2</v>
+      </c>
+      <c r="F34">
+        <v>1.2907E-2</v>
+      </c>
+      <c r="H34">
+        <v>3.057429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="F35">
+        <v>2.7100000000000002E-3</v>
+      </c>
+      <c r="H35">
+        <v>3.0601389999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="F36">
+        <v>5.2300000000000003E-3</v>
+      </c>
+      <c r="H36">
+        <v>3.065369</v>
+      </c>
+      <c r="I36">
+        <f>EXP(H36)</f>
+        <v>21.442372763103297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <f t="shared" si="0"/>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
